--- a/templates/invent.xlsx
+++ b/templates/invent.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Проект Кофе\Инвентаризация\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C6CDEB-3782-4D49-AC25-4017981B4383}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B450DCD-D143-4ADF-B740-E3F8F5C2A276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="689" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="46">
   <si>
     <t>№ п/п</t>
   </si>
@@ -187,6 +187,12 @@
   </si>
   <si>
     <t>"___31___"  мая 2025 г.</t>
+  </si>
+  <si>
+    <t>Кофе Жардин Пьяцца Арабика 1кг зерно</t>
+  </si>
+  <si>
+    <t>Крышка пластиковая 80мм без клапана Global Cups</t>
   </si>
 </sst>
 </file>
@@ -969,7 +975,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1178,7 +1184,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>22</v>
@@ -1200,7 +1206,7 @@
         <v>13</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>22</v>

--- a/templates/invent.xlsx
+++ b/templates/invent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Проект Кофе\Инвентаризация\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B450DCD-D143-4ADF-B740-E3F8F5C2A276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A87A8B-8184-4BE4-B9F9-A929E9AC9479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="689" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -589,35 +589,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -628,18 +599,6 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -678,6 +637,51 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -975,7 +979,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -984,7 +988,7 @@
     <col min="2" max="2" width="16.21875" style="2" customWidth="1"/>
     <col min="3" max="3" width="48.44140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="7.5546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.5546875" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" style="6" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.88671875" style="2" customWidth="1"/>
     <col min="8" max="9" width="9.109375" style="2"/>
@@ -1002,14 +1006,14 @@
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
     </row>
     <row r="4" spans="1:27" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
@@ -1041,375 +1045,375 @@
       <c r="AA4" s="2"/>
     </row>
     <row r="5" spans="1:27" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="13" t="s">
+      <c r="C5" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="20"/>
-      <c r="K5" s="21"/>
-      <c r="N5" s="23"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="10"/>
+      <c r="N5" s="12"/>
     </row>
     <row r="6" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14">
-        <v>1</v>
-      </c>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="30">
+        <v>1</v>
+      </c>
+      <c r="B6" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="25" t="b">
+      <c r="D6" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="32"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="34" t="b">
         <f>EXACT(E6,E6)</f>
         <v>1</v>
       </c>
-      <c r="J6" s="20"/>
-      <c r="K6" s="21"/>
-    </row>
-    <row r="7" spans="1:27" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14">
+      <c r="J6" s="9"/>
+      <c r="K6" s="10"/>
+    </row>
+    <row r="7" spans="1:27" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="30">
         <v>2</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="25" t="b">
+      <c r="D7" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="32"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="34" t="b">
         <f t="shared" ref="G7:G19" si="0">EXACT(F7,E7)</f>
         <v>1</v>
       </c>
-      <c r="J7" s="20"/>
-      <c r="K7" s="21"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14">
+      <c r="A8" s="30">
         <v>3</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="25" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J8" s="20"/>
-      <c r="K8" s="21"/>
+      <c r="D8" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="32"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="34" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14">
+      <c r="A9" s="30">
         <v>4</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="25" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J9" s="20"/>
-      <c r="K9" s="21"/>
+      <c r="D9" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="32"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="34" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14">
+      <c r="A10" s="30">
         <v>5</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="25" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J10" s="20"/>
-      <c r="K10" s="21"/>
+      <c r="D10" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="32"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="34" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J10" s="9"/>
+      <c r="K10" s="10"/>
     </row>
     <row r="11" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14">
+      <c r="A11" s="30">
         <v>6</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="25" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J11" s="20"/>
-      <c r="K11" s="22"/>
+      <c r="D11" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="32"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="34" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="11"/>
     </row>
     <row r="12" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14">
+      <c r="A12" s="30">
         <v>7</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="25" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J12" s="20"/>
-      <c r="K12" s="22"/>
+      <c r="D12" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="32"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="34" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J12" s="9"/>
+      <c r="K12" s="11"/>
     </row>
     <row r="13" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14">
+      <c r="A13" s="30">
         <v>8</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="25" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J13" s="20"/>
-      <c r="K13" s="21"/>
+      <c r="D13" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="32"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="34" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J13" s="9"/>
+      <c r="K13" s="10"/>
     </row>
     <row r="14" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14">
+      <c r="A14" s="30">
         <v>9</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="25" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J14" s="20"/>
-      <c r="K14" s="21"/>
+      <c r="D14" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="32"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="34" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J14" s="9"/>
+      <c r="K14" s="10"/>
     </row>
     <row r="15" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14">
+      <c r="A15" s="30">
         <v>10</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="25" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J15" s="20"/>
-      <c r="K15" s="21"/>
+      <c r="D15" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="32"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="34" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J15" s="9"/>
+      <c r="K15" s="10"/>
     </row>
     <row r="16" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14">
+      <c r="A16" s="30">
         <v>11</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="25" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J16" s="20"/>
-      <c r="K16" s="22"/>
+      <c r="D16" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="32"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J16" s="9"/>
+      <c r="K16" s="11"/>
     </row>
     <row r="17" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14">
+      <c r="A17" s="30">
         <v>12</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="25" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J17" s="20"/>
-      <c r="K17" s="22"/>
+      <c r="D17" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="32"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="34" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J17" s="9"/>
+      <c r="K17" s="11"/>
     </row>
     <row r="18" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14">
+      <c r="A18" s="30">
         <v>13</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="25" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J18" s="20"/>
-      <c r="K18" s="21"/>
+      <c r="D18" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="32"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="34" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J18" s="9"/>
+      <c r="K18" s="10"/>
     </row>
     <row r="19" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14">
+      <c r="A19" s="30">
         <v>14</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="25" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J19" s="20"/>
-      <c r="K19" s="21"/>
+      <c r="D19" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="35"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="34" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J19" s="9"/>
+      <c r="K19" s="10"/>
     </row>
     <row r="20" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="14">
+      <c r="A20" s="30">
         <v>15</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="25" t="b">
+      <c r="D20" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="32"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="34" t="b">
         <f>EXACT(F20,E20)</f>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="8" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="15">
+      <c r="A21" s="36">
         <v>16</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="26" t="b">
+      <c r="D21" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="38"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="40" t="b">
         <f>EXACT(F21,E21)</f>
         <v>1</v>
       </c>
@@ -1433,53 +1437,54 @@
   <dimension ref="A1:AA21"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A5" sqref="A5:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
     <col min="3" max="3" width="59.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" customWidth="1"/>
     <col min="6" max="6" width="11.88671875" customWidth="1"/>
     <col min="7" max="7" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28"/>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="31"/>
+      <c r="A1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:27" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="32"/>
+      <c r="A2" s="17"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="33"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:27" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="40"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="25"/>
     </row>
     <row r="4" spans="1:27" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="34"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="37"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="22"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -1503,375 +1508,375 @@
       <c r="AA4" s="2"/>
     </row>
     <row r="5" spans="1:27" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="13" t="s">
+      <c r="C5" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="20"/>
-      <c r="K5" s="21"/>
-      <c r="N5" s="23"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="10"/>
+      <c r="N5" s="12"/>
     </row>
     <row r="6" spans="1:27" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="14">
-        <v>1</v>
-      </c>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="30">
+        <v>1</v>
+      </c>
+      <c r="B6" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="25" t="b">
+      <c r="D6" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="32"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="34" t="b">
         <f>EXACT(F6,E6)</f>
         <v>1</v>
       </c>
-      <c r="J6" s="20"/>
-      <c r="K6" s="21"/>
-    </row>
-    <row r="7" spans="1:27" s="2" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="14">
+      <c r="J6" s="9"/>
+      <c r="K6" s="10"/>
+    </row>
+    <row r="7" spans="1:27" s="2" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="30">
         <v>2</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="25" t="b">
+      <c r="D7" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="32"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="34" t="b">
         <f t="shared" ref="G7:G19" si="0">EXACT(F7,E7)</f>
         <v>1</v>
       </c>
-      <c r="J7" s="20"/>
-      <c r="K7" s="21"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:27" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14">
+      <c r="A8" s="30">
         <v>3</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="25" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J8" s="20"/>
-      <c r="K8" s="21"/>
+      <c r="D8" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="32"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="34" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:27" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="14">
+      <c r="A9" s="30">
         <v>4</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="25" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J9" s="20"/>
-      <c r="K9" s="21"/>
+      <c r="D9" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="32"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="34" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:27" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14">
+      <c r="A10" s="30">
         <v>5</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="25" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J10" s="20"/>
-      <c r="K10" s="21"/>
+      <c r="D10" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="32"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="34" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J10" s="9"/>
+      <c r="K10" s="10"/>
     </row>
     <row r="11" spans="1:27" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="14">
+      <c r="A11" s="30">
         <v>6</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="25" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J11" s="20"/>
-      <c r="K11" s="22"/>
+      <c r="D11" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="32"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="34" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="11"/>
     </row>
     <row r="12" spans="1:27" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14">
+      <c r="A12" s="30">
         <v>7</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="25" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J12" s="20"/>
-      <c r="K12" s="22"/>
+      <c r="D12" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="32"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="34" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J12" s="9"/>
+      <c r="K12" s="11"/>
     </row>
     <row r="13" spans="1:27" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14">
+      <c r="A13" s="30">
         <v>8</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="25" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J13" s="20"/>
-      <c r="K13" s="21"/>
+      <c r="D13" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="32"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="34" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J13" s="9"/>
+      <c r="K13" s="10"/>
     </row>
     <row r="14" spans="1:27" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14">
+      <c r="A14" s="30">
         <v>9</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="25" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J14" s="20"/>
-      <c r="K14" s="21"/>
+      <c r="D14" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="32"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="34" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J14" s="9"/>
+      <c r="K14" s="10"/>
     </row>
     <row r="15" spans="1:27" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="14">
+      <c r="A15" s="30">
         <v>10</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="25" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J15" s="20"/>
-      <c r="K15" s="21"/>
+      <c r="D15" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="32"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="34" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J15" s="9"/>
+      <c r="K15" s="10"/>
     </row>
     <row r="16" spans="1:27" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14">
+      <c r="A16" s="30">
         <v>11</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="25" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J16" s="20"/>
-      <c r="K16" s="22"/>
+      <c r="D16" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="32"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J16" s="9"/>
+      <c r="K16" s="11"/>
     </row>
     <row r="17" spans="1:11" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14">
+      <c r="A17" s="30">
         <v>12</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="25" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J17" s="20"/>
-      <c r="K17" s="22"/>
+      <c r="D17" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="32"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="34" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J17" s="9"/>
+      <c r="K17" s="11"/>
     </row>
     <row r="18" spans="1:11" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14">
+      <c r="A18" s="30">
         <v>13</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="25" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J18" s="20"/>
-      <c r="K18" s="21"/>
+      <c r="D18" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="32"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="34" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J18" s="9"/>
+      <c r="K18" s="10"/>
     </row>
     <row r="19" spans="1:11" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14">
+      <c r="A19" s="30">
         <v>14</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="25" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J19" s="20"/>
-      <c r="K19" s="21"/>
+      <c r="D19" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="35"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="34" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J19" s="9"/>
+      <c r="K19" s="10"/>
     </row>
     <row r="20" spans="1:11" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="14">
+      <c r="A20" s="30">
         <v>15</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="25" t="b">
+      <c r="D20" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="32"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="34" t="b">
         <f>EXACT(F20,E20)</f>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="8" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="15">
+      <c r="A21" s="36">
         <v>16</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="26" t="b">
+      <c r="D21" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="38"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="40" t="b">
         <f>EXACT(F21,E21)</f>
         <v>1</v>
       </c>

--- a/templates/invent.xlsx
+++ b/templates/invent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Проект Кофе\Инвентаризация\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A87A8B-8184-4BE4-B9F9-A929E9AC9479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D3C6B1-89A9-4F0F-A1BA-F9F1013CE7FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="689" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -629,6 +629,51 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -637,51 +682,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -976,10 +976,10 @@
   <dimension ref="A2:AA22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5:G21"/>
+      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1006,14 +1006,14 @@
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
     </row>
     <row r="4" spans="1:27" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
@@ -1045,25 +1045,25 @@
       <c r="AA4" s="2"/>
     </row>
     <row r="5" spans="1:27" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="27" t="s">
+      <c r="C5" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="26" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="9"/>
@@ -1071,21 +1071,21 @@
       <c r="N5" s="12"/>
     </row>
     <row r="6" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30">
-        <v>1</v>
-      </c>
-      <c r="B6" s="31" t="s">
+      <c r="A6" s="27">
+        <v>1</v>
+      </c>
+      <c r="B6" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="34" t="b">
+      <c r="D6" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="29"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="31" t="b">
         <f>EXACT(E6,E6)</f>
         <v>1</v>
       </c>
@@ -1093,21 +1093,21 @@
       <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:27" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30">
+      <c r="A7" s="27">
         <v>2</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="34" t="b">
+      <c r="D7" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="29"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="31" t="b">
         <f t="shared" ref="G7:G19" si="0">EXACT(F7,E7)</f>
         <v>1</v>
       </c>
@@ -1115,21 +1115,21 @@
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30">
+      <c r="A8" s="27">
         <v>3</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="34" t="b">
+      <c r="D8" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="29"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="31" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1137,21 +1137,21 @@
       <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30">
+      <c r="A9" s="27">
         <v>4</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="34" t="b">
+      <c r="D9" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="29"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1159,21 +1159,21 @@
       <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30">
+      <c r="A10" s="27">
         <v>5</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="32"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="34" t="b">
+      <c r="D10" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="29"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="31" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1181,21 +1181,21 @@
       <c r="K10" s="10"/>
     </row>
     <row r="11" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30">
+      <c r="A11" s="27">
         <v>6</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="34" t="b">
+      <c r="D11" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="29"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="31" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1203,21 +1203,21 @@
       <c r="K11" s="11"/>
     </row>
     <row r="12" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30">
+      <c r="A12" s="27">
         <v>7</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="34" t="b">
+      <c r="D12" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="29"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="31" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1225,21 +1225,21 @@
       <c r="K12" s="11"/>
     </row>
     <row r="13" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30">
+      <c r="A13" s="27">
         <v>8</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="34" t="b">
+      <c r="D13" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="29"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="31" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1247,21 +1247,21 @@
       <c r="K13" s="10"/>
     </row>
     <row r="14" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30">
+      <c r="A14" s="27">
         <v>9</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="32"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="34" t="b">
+      <c r="D14" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="29"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="31" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1269,43 +1269,43 @@
       <c r="K14" s="10"/>
     </row>
     <row r="15" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30">
+      <c r="A15" s="27">
         <v>10</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="34" t="b">
+      <c r="D15" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="29"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="31" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J15" s="9"/>
       <c r="K15" s="10"/>
     </row>
-    <row r="16" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30">
+    <row r="16" spans="1:27" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="27">
         <v>11</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="32"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="34" t="b">
+      <c r="D16" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="29"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="31" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1313,21 +1313,21 @@
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30">
+      <c r="A17" s="27">
         <v>12</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="34" t="b">
+      <c r="D17" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="29"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1335,21 +1335,21 @@
       <c r="K17" s="11"/>
     </row>
     <row r="18" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="30">
+      <c r="A18" s="27">
         <v>13</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="34" t="b">
+      <c r="D18" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="29"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="31" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1357,21 +1357,21 @@
       <c r="K18" s="10"/>
     </row>
     <row r="19" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30">
+      <c r="A19" s="27">
         <v>14</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="35"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="34" t="b">
+      <c r="D19" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="32"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="31" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1379,41 +1379,41 @@
       <c r="K19" s="10"/>
     </row>
     <row r="20" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30">
+      <c r="A20" s="27">
         <v>15</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="32"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="34" t="b">
+      <c r="D20" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="29"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="31" t="b">
         <f>EXACT(F20,E20)</f>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="8" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="36">
+      <c r="A21" s="33">
         <v>16</v>
       </c>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="38"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="40" t="b">
+      <c r="D21" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="35"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="37" t="b">
         <f>EXACT(F21,E21)</f>
         <v>1</v>
       </c>
@@ -1469,14 +1469,14 @@
       <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:27" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="25"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:27" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="19"/>
@@ -1508,25 +1508,25 @@
       <c r="AA4" s="2"/>
     </row>
     <row r="5" spans="1:27" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="27" t="s">
+      <c r="C5" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F5" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="26" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="9"/>
@@ -1534,21 +1534,21 @@
       <c r="N5" s="12"/>
     </row>
     <row r="6" spans="1:27" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30">
-        <v>1</v>
-      </c>
-      <c r="B6" s="31" t="s">
+      <c r="A6" s="27">
+        <v>1</v>
+      </c>
+      <c r="B6" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="34" t="b">
+      <c r="D6" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="29"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="31" t="b">
         <f>EXACT(F6,E6)</f>
         <v>1</v>
       </c>
@@ -1556,21 +1556,21 @@
       <c r="K6" s="10"/>
     </row>
     <row r="7" spans="1:27" s="2" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30">
+      <c r="A7" s="27">
         <v>2</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="34" t="b">
+      <c r="D7" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="29"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="31" t="b">
         <f t="shared" ref="G7:G19" si="0">EXACT(F7,E7)</f>
         <v>1</v>
       </c>
@@ -1578,21 +1578,21 @@
       <c r="K7" s="10"/>
     </row>
     <row r="8" spans="1:27" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30">
+      <c r="A8" s="27">
         <v>3</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="34" t="b">
+      <c r="D8" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="29"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="31" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1600,21 +1600,21 @@
       <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:27" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30">
+      <c r="A9" s="27">
         <v>4</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="34" t="b">
+      <c r="D9" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="29"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1622,21 +1622,21 @@
       <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:27" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30">
+      <c r="A10" s="27">
         <v>5</v>
       </c>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="32"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="34" t="b">
+      <c r="D10" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="29"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="31" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1644,21 +1644,21 @@
       <c r="K10" s="10"/>
     </row>
     <row r="11" spans="1:27" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30">
+      <c r="A11" s="27">
         <v>6</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="34" t="b">
+      <c r="D11" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="29"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="31" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1666,21 +1666,21 @@
       <c r="K11" s="11"/>
     </row>
     <row r="12" spans="1:27" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30">
+      <c r="A12" s="27">
         <v>7</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="34" t="b">
+      <c r="D12" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="29"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="31" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1688,21 +1688,21 @@
       <c r="K12" s="11"/>
     </row>
     <row r="13" spans="1:27" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30">
+      <c r="A13" s="27">
         <v>8</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="34" t="b">
+      <c r="D13" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="29"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="31" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1710,21 +1710,21 @@
       <c r="K13" s="10"/>
     </row>
     <row r="14" spans="1:27" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30">
+      <c r="A14" s="27">
         <v>9</v>
       </c>
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="32"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="34" t="b">
+      <c r="D14" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="29"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="31" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1732,21 +1732,21 @@
       <c r="K14" s="10"/>
     </row>
     <row r="15" spans="1:27" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30">
+      <c r="A15" s="27">
         <v>10</v>
       </c>
-      <c r="B15" s="31" t="s">
+      <c r="B15" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="34" t="b">
+      <c r="D15" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="29"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="31" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1754,21 +1754,21 @@
       <c r="K15" s="10"/>
     </row>
     <row r="16" spans="1:27" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30">
+      <c r="A16" s="27">
         <v>11</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="32"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="34" t="b">
+      <c r="D16" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="29"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="31" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1776,21 +1776,21 @@
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="1:11" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30">
+      <c r="A17" s="27">
         <v>12</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="34" t="b">
+      <c r="D17" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="29"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1798,21 +1798,21 @@
       <c r="K17" s="11"/>
     </row>
     <row r="18" spans="1:11" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="30">
+      <c r="A18" s="27">
         <v>13</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="34" t="b">
+      <c r="D18" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="29"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="31" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1820,21 +1820,21 @@
       <c r="K18" s="10"/>
     </row>
     <row r="19" spans="1:11" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30">
+      <c r="A19" s="27">
         <v>14</v>
       </c>
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="35"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="34" t="b">
+      <c r="D19" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="32"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="31" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1842,41 +1842,41 @@
       <c r="K19" s="10"/>
     </row>
     <row r="20" spans="1:11" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30">
+      <c r="A20" s="27">
         <v>15</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="32"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="34" t="b">
+      <c r="D20" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="29"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="31" t="b">
         <f>EXACT(F20,E20)</f>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="8" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="36">
+      <c r="A21" s="33">
         <v>16</v>
       </c>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="38"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="40" t="b">
+      <c r="D21" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="35"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="37" t="b">
         <f>EXACT(F21,E21)</f>
         <v>1</v>
       </c>

--- a/templates/invent.xlsx
+++ b/templates/invent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Проект Кофе\Инвентаризация\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3D3C6B1-89A9-4F0F-A1BA-F9F1013CE7FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95DE342-DC3B-428A-844C-1A0FBAEF4165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="689" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="689" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ведомость д-бух" sheetId="16" r:id="rId1"/>
@@ -563,16 +563,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -682,6 +676,63 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -973,451 +1024,463 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:AA22"/>
+  <dimension ref="A1:AA22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="5" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomRight" activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="48.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" style="2" customWidth="1"/>
-    <col min="8" max="9" width="9.109375" style="2"/>
-    <col min="10" max="10" width="29.33203125" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="3.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="56.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" style="1" customWidth="1"/>
+    <col min="8" max="9" width="9.109375" style="1"/>
+    <col min="10" max="10" width="29.33203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4" t="s">
+    <row r="1" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="39"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+    </row>
+    <row r="2" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="38" t="s">
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+    </row>
+    <row r="3" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-    </row>
-    <row r="4" spans="1:27" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="39"/>
+    </row>
+    <row r="4" spans="1:27" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
     </row>
     <row r="5" spans="1:27" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="24" t="s">
+      <c r="C5" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="10"/>
-      <c r="N5" s="12"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="8"/>
+      <c r="N5" s="10"/>
     </row>
     <row r="6" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27">
-        <v>1</v>
-      </c>
-      <c r="B6" s="28" t="s">
+      <c r="A6" s="47">
+        <v>1</v>
+      </c>
+      <c r="B6" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="31" t="b">
+      <c r="D6" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="49"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="51" t="b">
         <f>EXACT(E6,E6)</f>
         <v>1</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="10"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:27" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="27">
+      <c r="A7" s="47">
         <v>2</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="31" t="b">
+      <c r="D7" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="49"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="51" t="b">
         <f t="shared" ref="G7:G19" si="0">EXACT(F7,E7)</f>
         <v>1</v>
       </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="10"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="8"/>
     </row>
     <row r="8" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27">
+      <c r="A8" s="47">
         <v>3</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="10"/>
+      <c r="D8" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="49"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="51" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="8"/>
     </row>
     <row r="9" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="27">
+      <c r="A9" s="47">
         <v>4</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="31" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="10"/>
+      <c r="D9" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="49"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="51" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="8"/>
     </row>
     <row r="10" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27">
+      <c r="A10" s="47">
         <v>5</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="31" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="10"/>
+      <c r="D10" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="49"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="51" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="8"/>
     </row>
     <row r="11" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="27">
+      <c r="A11" s="47">
         <v>6</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="31" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="11"/>
+      <c r="D11" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="49"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="51" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="9"/>
     </row>
     <row r="12" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27">
+      <c r="A12" s="47">
         <v>7</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="31" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="11"/>
+      <c r="D12" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="49"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="51" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="9"/>
     </row>
     <row r="13" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27">
+      <c r="A13" s="47">
         <v>8</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="31" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="10"/>
+      <c r="D13" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="49"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="51" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="8"/>
     </row>
     <row r="14" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="27">
+      <c r="A14" s="47">
         <v>9</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="31" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="10"/>
+      <c r="D14" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="49"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="51" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="K14" s="8"/>
     </row>
     <row r="15" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="27">
+      <c r="A15" s="47">
         <v>10</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="31" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="10"/>
-    </row>
-    <row r="16" spans="1:27" ht="32.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="27">
+      <c r="D15" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="49"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="51" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="8"/>
+    </row>
+    <row r="16" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="47">
         <v>11</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="31" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="11"/>
+      <c r="D16" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="49"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="51" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J16" s="7"/>
+      <c r="K16" s="9"/>
     </row>
     <row r="17" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="27">
+      <c r="A17" s="47">
         <v>12</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="31" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J17" s="9"/>
-      <c r="K17" s="11"/>
+      <c r="D17" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="49"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="51" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="9"/>
     </row>
     <row r="18" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="27">
+      <c r="A18" s="47">
         <v>13</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="31" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="10"/>
+      <c r="D18" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="49"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="51" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J18" s="7"/>
+      <c r="K18" s="8"/>
     </row>
     <row r="19" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="27">
+      <c r="A19" s="47">
         <v>14</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="32"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="31" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J19" s="9"/>
-      <c r="K19" s="10"/>
+      <c r="D19" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="52"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="51" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J19" s="7"/>
+      <c r="K19" s="8"/>
     </row>
     <row r="20" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="27">
+      <c r="A20" s="47">
         <v>15</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="29"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="31" t="b">
+      <c r="D20" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="49"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="51" t="b">
         <f>EXACT(F20,E20)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="8" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="33">
+    <row r="21" spans="1:11" s="6" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="53">
         <v>16</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="35"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="37" t="b">
+      <c r="D21" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="55"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="57" t="b">
         <f>EXACT(F21,E21)</f>
         <v>1</v>
       </c>
-      <c r="H21" s="2"/>
+      <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -1436,8 +1499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D7C5C38-484F-4FE0-8185-3A8C750D45D3}">
   <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:G21"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1450,437 +1513,437 @@
     <col min="7" max="7" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="16"/>
-    </row>
-    <row r="2" spans="1:27" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="17"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4" t="s">
+    <row r="1" spans="1:27" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="14"/>
+    </row>
+    <row r="2" spans="1:27" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="15"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="18"/>
-    </row>
-    <row r="3" spans="1:27" s="2" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="39" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="1:27" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="40"/>
-    </row>
-    <row r="4" spans="1:27" s="7" customFormat="1" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="19"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-    </row>
-    <row r="5" spans="1:27" s="2" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="38"/>
+    </row>
+    <row r="4" spans="1:27" s="5" customFormat="1" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="17"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+    </row>
+    <row r="5" spans="1:27" s="1" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="24" t="s">
+      <c r="C5" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="10"/>
-      <c r="N5" s="12"/>
-    </row>
-    <row r="6" spans="1:27" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27">
-        <v>1</v>
-      </c>
-      <c r="B6" s="28" t="s">
+      <c r="J5" s="7"/>
+      <c r="K5" s="8"/>
+      <c r="N5" s="10"/>
+    </row>
+    <row r="6" spans="1:27" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="25">
+        <v>1</v>
+      </c>
+      <c r="B6" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="31" t="b">
+      <c r="D6" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="29" t="b">
         <f>EXACT(F6,E6)</f>
         <v>1</v>
       </c>
-      <c r="J6" s="9"/>
-      <c r="K6" s="10"/>
-    </row>
-    <row r="7" spans="1:27" s="2" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="27">
+      <c r="J6" s="7"/>
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" spans="1:27" s="1" customFormat="1" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="25">
         <v>2</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="31" t="b">
+      <c r="D7" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="27"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29" t="b">
         <f t="shared" ref="G7:G19" si="0">EXACT(F7,E7)</f>
         <v>1</v>
       </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="10"/>
-    </row>
-    <row r="8" spans="1:27" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27">
+      <c r="J7" s="7"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:27" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="25">
         <v>3</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="10"/>
-    </row>
-    <row r="9" spans="1:27" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="27">
+      <c r="D8" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="27"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="29" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" spans="1:27" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="25">
         <v>4</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="31" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J9" s="9"/>
-      <c r="K9" s="10"/>
-    </row>
-    <row r="10" spans="1:27" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27">
+      <c r="D9" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="27"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="29" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="1:27" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="25">
         <v>5</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="31" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J10" s="9"/>
-      <c r="K10" s="10"/>
-    </row>
-    <row r="11" spans="1:27" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="27">
+      <c r="D10" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="27"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="29" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="1:27" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="25">
         <v>6</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="31" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J11" s="9"/>
-      <c r="K11" s="11"/>
-    </row>
-    <row r="12" spans="1:27" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27">
+      <c r="D11" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="27"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="29" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" spans="1:27" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="25">
         <v>7</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="31" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J12" s="9"/>
-      <c r="K12" s="11"/>
-    </row>
-    <row r="13" spans="1:27" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27">
+      <c r="D12" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="27"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="29" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" spans="1:27" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="25">
         <v>8</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="31" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J13" s="9"/>
-      <c r="K13" s="10"/>
-    </row>
-    <row r="14" spans="1:27" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="27">
+      <c r="D13" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="27"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="29" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" spans="1:27" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="25">
         <v>9</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="29"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="31" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="10"/>
-    </row>
-    <row r="15" spans="1:27" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="27">
+      <c r="D14" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="27"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="29" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15" spans="1:27" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="25">
         <v>10</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="31" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="10"/>
-    </row>
-    <row r="16" spans="1:27" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="27">
+      <c r="D15" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="27"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="29" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="8"/>
+    </row>
+    <row r="16" spans="1:27" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="25">
         <v>11</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="29"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="31" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="11"/>
-    </row>
-    <row r="17" spans="1:11" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="27">
+      <c r="D16" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="27"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="29" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J16" s="7"/>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="1:11" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="25">
         <v>12</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="29"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="31" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J17" s="9"/>
-      <c r="K17" s="11"/>
-    </row>
-    <row r="18" spans="1:11" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="27">
+      <c r="D17" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="27"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="29" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" spans="1:11" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="25">
         <v>13</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="31" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="10"/>
-    </row>
-    <row r="19" spans="1:11" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="27">
+      <c r="D18" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="27"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="29" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J18" s="7"/>
+      <c r="K18" s="8"/>
+    </row>
+    <row r="19" spans="1:11" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="25">
         <v>14</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="32"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="31" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="J19" s="9"/>
-      <c r="K19" s="10"/>
-    </row>
-    <row r="20" spans="1:11" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="27">
+      <c r="D19" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="30"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="29" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J19" s="7"/>
+      <c r="K19" s="8"/>
+    </row>
+    <row r="20" spans="1:11" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="25">
         <v>15</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="29"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="31" t="b">
+      <c r="D20" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="27"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="29" t="b">
         <f>EXACT(F20,E20)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="8" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="33">
+    <row r="21" spans="1:11" s="6" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="31">
         <v>16</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="35"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="37" t="b">
+      <c r="D21" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="33"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="35" t="b">
         <f>EXACT(F21,E21)</f>
         <v>1</v>
       </c>
-      <c r="H21" s="2"/>
+      <c r="H21" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/templates/invent.xlsx
+++ b/templates/invent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Проект Кофе\Инвентаризация\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A95DE342-DC3B-428A-844C-1A0FBAEF4165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC45999-036E-4BAA-AEBC-D56FC6776D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="689" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="689" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ведомость д-бух" sheetId="16" r:id="rId1"/>
@@ -668,71 +668,71 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1026,8 +1026,8 @@
   </sheetPr>
   <dimension ref="A1:AA22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E15" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
       <selection pane="bottomRight" activeCell="A16" sqref="A16:XFD16"/>
@@ -1048,44 +1048,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39"/>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-    </row>
-    <row r="2" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40" t="s">
+      <c r="A1" s="36"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+    </row>
+    <row r="2" spans="1:27" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
     </row>
     <row r="3" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="39"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="36"/>
     </row>
     <row r="4" spans="1:27" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="42"/>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1108,25 +1108,25 @@
       <c r="AA4" s="1"/>
     </row>
     <row r="5" spans="1:27" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="44" t="s">
+      <c r="C5" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="42" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="7"/>
@@ -1134,21 +1134,21 @@
       <c r="N5" s="10"/>
     </row>
     <row r="6" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47">
-        <v>1</v>
-      </c>
-      <c r="B6" s="48" t="s">
+      <c r="A6" s="43">
+        <v>1</v>
+      </c>
+      <c r="B6" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="49"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="51" t="b">
+      <c r="D6" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="45"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="47" t="b">
         <f>EXACT(E6,E6)</f>
         <v>1</v>
       </c>
@@ -1156,21 +1156,21 @@
       <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:27" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="47">
+      <c r="A7" s="43">
         <v>2</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="51" t="b">
+      <c r="D7" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="45"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="47" t="b">
         <f t="shared" ref="G7:G19" si="0">EXACT(F7,E7)</f>
         <v>1</v>
       </c>
@@ -1178,21 +1178,21 @@
       <c r="K7" s="8"/>
     </row>
     <row r="8" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="47">
+      <c r="A8" s="43">
         <v>3</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="49"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="51" t="b">
+      <c r="D8" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="45"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="47" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1200,21 +1200,21 @@
       <c r="K8" s="8"/>
     </row>
     <row r="9" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="47">
+      <c r="A9" s="43">
         <v>4</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="49"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="51" t="b">
+      <c r="D9" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="45"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="47" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1222,21 +1222,21 @@
       <c r="K9" s="8"/>
     </row>
     <row r="10" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="47">
+      <c r="A10" s="43">
         <v>5</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="49"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="51" t="b">
+      <c r="D10" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="45"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="47" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1244,21 +1244,21 @@
       <c r="K10" s="8"/>
     </row>
     <row r="11" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="47">
+      <c r="A11" s="43">
         <v>6</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="48" t="s">
+      <c r="C11" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="49"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="51" t="b">
+      <c r="D11" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="45"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="47" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1266,21 +1266,21 @@
       <c r="K11" s="9"/>
     </row>
     <row r="12" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="47">
+      <c r="A12" s="43">
         <v>7</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="49"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="51" t="b">
+      <c r="D12" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="45"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="47" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1288,21 +1288,21 @@
       <c r="K12" s="9"/>
     </row>
     <row r="13" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="47">
+      <c r="A13" s="43">
         <v>8</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="48" t="s">
+      <c r="C13" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="49"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="51" t="b">
+      <c r="D13" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="45"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="47" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1310,21 +1310,21 @@
       <c r="K13" s="8"/>
     </row>
     <row r="14" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="47">
+      <c r="A14" s="43">
         <v>9</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="49"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="51" t="b">
+      <c r="D14" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="45"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="47" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1332,21 +1332,21 @@
       <c r="K14" s="8"/>
     </row>
     <row r="15" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="47">
+      <c r="A15" s="43">
         <v>10</v>
       </c>
-      <c r="B15" s="48" t="s">
+      <c r="B15" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="49"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="51" t="b">
+      <c r="D15" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="45"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="47" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1354,21 +1354,21 @@
       <c r="K15" s="8"/>
     </row>
     <row r="16" spans="1:27" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="47">
+      <c r="A16" s="43">
         <v>11</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="48" t="s">
+      <c r="C16" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="49"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="51" t="b">
+      <c r="D16" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="45"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="47" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1376,21 +1376,21 @@
       <c r="K16" s="9"/>
     </row>
     <row r="17" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="47">
+      <c r="A17" s="43">
         <v>12</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="48" t="s">
+      <c r="C17" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="49"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="51" t="b">
+      <c r="D17" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="45"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="47" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1398,21 +1398,21 @@
       <c r="K17" s="9"/>
     </row>
     <row r="18" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="47">
+      <c r="A18" s="43">
         <v>13</v>
       </c>
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="49"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="51" t="b">
+      <c r="D18" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="45"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="47" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1420,21 +1420,21 @@
       <c r="K18" s="8"/>
     </row>
     <row r="19" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="47">
+      <c r="A19" s="43">
         <v>14</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="52"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="51" t="b">
+      <c r="D19" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="48"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="47" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1442,41 +1442,41 @@
       <c r="K19" s="8"/>
     </row>
     <row r="20" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="47">
+      <c r="A20" s="43">
         <v>15</v>
       </c>
-      <c r="B20" s="48" t="s">
+      <c r="B20" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="48" t="s">
+      <c r="C20" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="49"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="51" t="b">
+      <c r="D20" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="45"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="47" t="b">
         <f>EXACT(F20,E20)</f>
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:11" s="6" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="53">
+      <c r="A21" s="49">
         <v>16</v>
       </c>
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="54" t="s">
+      <c r="C21" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="55"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="57" t="b">
+      <c r="D21" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="51"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="53" t="b">
         <f>EXACT(F21,E21)</f>
         <v>1</v>
       </c>
@@ -1499,7 +1499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D7C5C38-484F-4FE0-8185-3A8C750D45D3}">
   <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -1532,14 +1532,14 @@
       <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:27" s="1" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="38"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="57"/>
     </row>
     <row r="4" spans="1:27" s="5" customFormat="1" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="17"/>
